--- a/data/raw/data.xlsx
+++ b/data/raw/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcamacho/Dropbox/research/projects/characterization-macrophomina/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcamacho/Dropbox/research/repos/characterization_macrophomina/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D6E3B-0D48-D043-85F5-32C52F7D7233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471C0337-A99B-4645-958B-BF379F578A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="14000" xr2:uid="{FF3960D6-D534-6345-97D2-3381E3083BDA}"/>
   </bookViews>
   <sheets>
-    <sheet name="nuevo análisis x cultivar" sheetId="1" r:id="rId1"/>
+    <sheet name="virulence" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'nuevo análisis x cultivar'!$A$1:$F$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">virulence!$A$1:$F$148</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
